--- a/SeminarPaper/Model/input_data/PotPumpStor.xlsx
+++ b/SeminarPaper/Model/input_data/PotPumpStor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\EnergyEconomics\SeminarPaper\Model\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Documents\GitHub\EnergyEconomics\SeminarPaper\Model\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7C7CA-5E4D-45D5-AECB-C8C0F6B5A6BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C28EFE-5B60-49D0-B9CA-EEBFD947E88C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tech_potential_pumped_storage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -559,48 +559,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,7 +616,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -912,15 +912,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -982,7 +982,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -997,7 +997,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1081,13 +1081,121 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
         <f>B2+B6+B7</f>
         <v>3228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B23" si="1">C18+D18</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>14235</v>
+      </c>
+      <c r="C19">
+        <v>6985</v>
+      </c>
+      <c r="D19">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>6931</v>
+      </c>
+      <c r="C20">
+        <v>6806</v>
+      </c>
+      <c r="D20">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f>B8+B9</f>
+        <v>44567</v>
+      </c>
+      <c r="C21">
+        <f>C8+C9</f>
+        <v>5942</v>
+      </c>
+      <c r="D21">
+        <f>D8+D9</f>
+        <v>38625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f>B2+B6+B7</f>
+        <v>3228</v>
+      </c>
+      <c r="C22">
+        <f>C2+C6+C7</f>
+        <v>2603</v>
+      </c>
+      <c r="D22">
+        <f>D2+D6+D7</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>5994</v>
+      </c>
+      <c r="C23">
+        <v>2744</v>
+      </c>
+      <c r="D23">
+        <v>3250</v>
       </c>
     </row>
   </sheetData>

--- a/SeminarPaper/Model/input_data/PotPumpStor.xlsx
+++ b/SeminarPaper/Model/input_data/PotPumpStor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Documents\GitHub\EnergyEconomics\SeminarPaper\Model\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C28EFE-5B60-49D0-B9CA-EEBFD947E88C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E6D8B-158C-47A2-9E5F-6F91A683ED9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>IB</t>
+  </si>
+  <si>
+    <t>Aggregated Country List</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +397,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -507,6 +516,86 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +644,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,13 +1025,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1072,133 +1191,135 @@
         <v>3250</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" ref="B15:B20" si="1">C15+D15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>14235</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6985</v>
+      </c>
+      <c r="D16" s="9">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>6931</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6806</v>
+      </c>
+      <c r="D17" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B18" s="8">
         <f>B8+B9</f>
         <v>44567</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C18" s="8">
+        <f>C8+C9</f>
+        <v>5942</v>
+      </c>
+      <c r="D18" s="9">
+        <f>D8+D9</f>
+        <v>38625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B19" s="8">
         <f>B2+B6+B7</f>
         <v>3228</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B23" si="1">C18+D18</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>14235</v>
-      </c>
-      <c r="C19">
-        <v>6985</v>
-      </c>
-      <c r="D19">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>6931</v>
-      </c>
-      <c r="C20">
-        <v>6806</v>
-      </c>
-      <c r="D20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <f>B8+B9</f>
-        <v>44567</v>
-      </c>
-      <c r="C21">
-        <f>C8+C9</f>
-        <v>5942</v>
-      </c>
-      <c r="D21">
-        <f>D8+D9</f>
-        <v>38625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <f>B2+B6+B7</f>
-        <v>3228</v>
-      </c>
-      <c r="C22">
+      <c r="C19" s="8">
         <f>C2+C6+C7</f>
         <v>2603</v>
       </c>
-      <c r="D22">
+      <c r="D19" s="9">
         <f>D2+D6+D7</f>
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B20" s="11">
         <f t="shared" si="1"/>
         <v>5994</v>
       </c>
-      <c r="C23">
+      <c r="C20" s="11">
         <v>2744</v>
       </c>
-      <c r="D23">
+      <c r="D20" s="12">
         <v>3250</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>